--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.823575666666667</v>
+        <v>4.692926333333333</v>
       </c>
       <c r="H2">
-        <v>11.470727</v>
+        <v>14.078779</v>
       </c>
       <c r="I2">
-        <v>0.06680335774677273</v>
+        <v>0.07484134849588243</v>
       </c>
       <c r="J2">
-        <v>0.06680335774677272</v>
+        <v>0.07484134849588245</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N2">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q2">
-        <v>19.10299060421256</v>
+        <v>22.62290370659366</v>
       </c>
       <c r="R2">
-        <v>171.926915437913</v>
+        <v>203.606133359343</v>
       </c>
       <c r="S2">
-        <v>0.002198281633033787</v>
+        <v>0.002349792185559748</v>
       </c>
       <c r="T2">
-        <v>0.002198281633033786</v>
+        <v>0.002349792185559748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.823575666666667</v>
+        <v>4.692926333333333</v>
       </c>
       <c r="H3">
-        <v>11.470727</v>
+        <v>14.078779</v>
       </c>
       <c r="I3">
-        <v>0.06680335774677273</v>
+        <v>0.07484134849588243</v>
       </c>
       <c r="J3">
-        <v>0.06680335774677272</v>
+        <v>0.07484134849588245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q3">
-        <v>135.3832694372774</v>
+        <v>166.1648063548965</v>
       </c>
       <c r="R3">
-        <v>1218.449424935497</v>
+        <v>1495.483257194069</v>
       </c>
       <c r="S3">
-        <v>0.01557926508943593</v>
+        <v>0.01725917983614028</v>
       </c>
       <c r="T3">
-        <v>0.01557926508943593</v>
+        <v>0.01725917983614028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.823575666666667</v>
+        <v>4.692926333333333</v>
       </c>
       <c r="H4">
-        <v>11.470727</v>
+        <v>14.078779</v>
       </c>
       <c r="I4">
-        <v>0.06680335774677273</v>
+        <v>0.07484134849588243</v>
       </c>
       <c r="J4">
-        <v>0.06680335774677272</v>
+        <v>0.07484134849588245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N4">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O4">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P4">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q4">
-        <v>217.7882508240017</v>
+        <v>240.8451921102052</v>
       </c>
       <c r="R4">
-        <v>1960.094257416015</v>
+        <v>2167.606728991847</v>
       </c>
       <c r="S4">
-        <v>0.02506203984476562</v>
+        <v>0.0250160703369501</v>
       </c>
       <c r="T4">
-        <v>0.02506203984476561</v>
+        <v>0.02501607033695011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.823575666666667</v>
+        <v>4.692926333333333</v>
       </c>
       <c r="H5">
-        <v>11.470727</v>
+        <v>14.078779</v>
       </c>
       <c r="I5">
-        <v>0.06680335774677273</v>
+        <v>0.07484134849588243</v>
       </c>
       <c r="J5">
-        <v>0.06680335774677272</v>
+        <v>0.07484134849588245</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N5">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O5">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P5">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q5">
-        <v>15.23044003135678</v>
+        <v>19.30380339978566</v>
       </c>
       <c r="R5">
-        <v>137.073960282211</v>
+        <v>173.734230598071</v>
       </c>
       <c r="S5">
-        <v>0.001752646864442838</v>
+        <v>0.002005044399635465</v>
       </c>
       <c r="T5">
-        <v>0.001752646864442838</v>
+        <v>0.002005044399635466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.823575666666667</v>
+        <v>4.692926333333333</v>
       </c>
       <c r="H6">
-        <v>11.470727</v>
+        <v>14.078779</v>
       </c>
       <c r="I6">
-        <v>0.06680335774677273</v>
+        <v>0.07484134849588243</v>
       </c>
       <c r="J6">
-        <v>0.06680335774677272</v>
+        <v>0.07484134849588245</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N6">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O6">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P6">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q6">
-        <v>193.0138944547726</v>
+        <v>271.6072772959419</v>
       </c>
       <c r="R6">
-        <v>1737.125050092953</v>
+        <v>2444.465495663477</v>
       </c>
       <c r="S6">
-        <v>0.02221112431509455</v>
+        <v>0.02821126173759684</v>
       </c>
       <c r="T6">
-        <v>0.02221112431509455</v>
+        <v>0.02821126173759685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>135.011326</v>
       </c>
       <c r="I7">
-        <v>0.7862805827951583</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="J7">
-        <v>0.7862805827951582</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N7">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q7">
-        <v>224.8436469667771</v>
+        <v>216.9469545191047</v>
       </c>
       <c r="R7">
-        <v>2023.592822700994</v>
+        <v>1952.522590671942</v>
       </c>
       <c r="S7">
-        <v>0.02587394139859983</v>
+        <v>0.02253381197310218</v>
       </c>
       <c r="T7">
-        <v>0.02587394139859983</v>
+        <v>0.02253381197310218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.011326</v>
       </c>
       <c r="I8">
-        <v>0.7862805827951583</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="J8">
-        <v>0.7862805827951582</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q8">
         <v>1593.471340128843</v>
@@ -948,10 +948,10 @@
         <v>14341.24206115958</v>
       </c>
       <c r="S8">
-        <v>0.1833691306427442</v>
+        <v>0.1655104292318078</v>
       </c>
       <c r="T8">
-        <v>0.1833691306427443</v>
+        <v>0.1655104292318078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.011326</v>
       </c>
       <c r="I9">
-        <v>0.7862805827951583</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="J9">
-        <v>0.7862805827951582</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N9">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O9">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P9">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q9">
-        <v>2563.384215400563</v>
+        <v>2309.634148495657</v>
       </c>
       <c r="R9">
-        <v>23070.45793860507</v>
+        <v>20786.70733646092</v>
       </c>
       <c r="S9">
-        <v>0.294982108083179</v>
+        <v>0.2398967145873162</v>
       </c>
       <c r="T9">
-        <v>0.294982108083179</v>
+        <v>0.2398967145873162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.011326</v>
       </c>
       <c r="I10">
-        <v>0.7862805827951583</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="J10">
-        <v>0.7862805827951582</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N10">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O10">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P10">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q10">
-        <v>179.2634332764576</v>
+        <v>185.1177643919526</v>
       </c>
       <c r="R10">
-        <v>1613.370899488118</v>
+        <v>1666.059879527574</v>
       </c>
       <c r="S10">
-        <v>0.02062878640370133</v>
+        <v>0.01922778268510771</v>
       </c>
       <c r="T10">
-        <v>0.02062878640370133</v>
+        <v>0.01922778268510772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.011326</v>
       </c>
       <c r="I11">
-        <v>0.7862805827951583</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="J11">
-        <v>0.7862805827951582</v>
+        <v>0.7177063934349132</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N11">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O11">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P11">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q11">
-        <v>2271.788163624057</v>
+        <v>2604.633445767904</v>
       </c>
       <c r="R11">
-        <v>20446.09347261651</v>
+        <v>23441.70101191114</v>
       </c>
       <c r="S11">
-        <v>0.2614266162669338</v>
+        <v>0.2705376549575793</v>
       </c>
       <c r="T11">
-        <v>0.2614266162669339</v>
+        <v>0.2705376549575794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.0574</v>
+        <v>1.150720333333333</v>
       </c>
       <c r="H12">
-        <v>3.1722</v>
+        <v>3.452161</v>
       </c>
       <c r="I12">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="J12">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N12">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q12">
-        <v>5.282882836866667</v>
+        <v>5.547207316959667</v>
       </c>
       <c r="R12">
-        <v>47.5459455318</v>
+        <v>49.924865852637</v>
       </c>
       <c r="S12">
-        <v>0.000607929122217779</v>
+        <v>0.0005761764525953653</v>
       </c>
       <c r="T12">
-        <v>0.0006079291222177789</v>
+        <v>0.0005761764525953652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.0574</v>
+        <v>1.150720333333333</v>
       </c>
       <c r="H13">
-        <v>3.1722</v>
+        <v>3.452161</v>
       </c>
       <c r="I13">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="J13">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q13">
-        <v>37.43989437713334</v>
+        <v>40.74413442180789</v>
       </c>
       <c r="R13">
-        <v>336.9590493942</v>
+        <v>366.697209796271</v>
       </c>
       <c r="S13">
-        <v>0.004308405623872721</v>
+        <v>0.004232005312556569</v>
       </c>
       <c r="T13">
-        <v>0.004308405623872721</v>
+        <v>0.004232005312556569</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0574</v>
+        <v>1.150720333333333</v>
       </c>
       <c r="H14">
-        <v>3.1722</v>
+        <v>3.452161</v>
       </c>
       <c r="I14">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="J14">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N14">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O14">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P14">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q14">
-        <v>60.22877968100001</v>
+        <v>59.05600046995256</v>
       </c>
       <c r="R14">
-        <v>542.059017129</v>
+        <v>531.504004229573</v>
       </c>
       <c r="S14">
-        <v>0.00693084255213863</v>
+        <v>0.006134019320175139</v>
       </c>
       <c r="T14">
-        <v>0.006930842552138629</v>
+        <v>0.006134019320175137</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0574</v>
+        <v>1.150720333333333</v>
       </c>
       <c r="H15">
-        <v>3.1722</v>
+        <v>3.452161</v>
       </c>
       <c r="I15">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="J15">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N15">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O15">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P15">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q15">
-        <v>4.211938952733334</v>
+        <v>4.733353456887667</v>
       </c>
       <c r="R15">
-        <v>37.90745057460001</v>
+        <v>42.600181111989</v>
       </c>
       <c r="S15">
-        <v>0.0004846899750456593</v>
+        <v>0.0004916432085261065</v>
       </c>
       <c r="T15">
-        <v>0.0004846899750456593</v>
+        <v>0.0004916432085261065</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0574</v>
+        <v>1.150720333333333</v>
       </c>
       <c r="H16">
-        <v>3.1722</v>
+        <v>3.452161</v>
       </c>
       <c r="I16">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="J16">
-        <v>0.01847429648045084</v>
+        <v>0.01835133461963527</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N16">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O16">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P16">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q16">
-        <v>53.37749525286668</v>
+        <v>66.59896074774922</v>
       </c>
       <c r="R16">
-        <v>480.3974572758</v>
+        <v>599.3906467297429</v>
       </c>
       <c r="S16">
-        <v>0.006142429207176053</v>
+        <v>0.006917490325782091</v>
       </c>
       <c r="T16">
-        <v>0.006142429207176052</v>
+        <v>0.00691749032578209</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.741795333333333</v>
+        <v>10.149841</v>
       </c>
       <c r="H17">
-        <v>17.225386</v>
+        <v>30.449523</v>
       </c>
       <c r="I17">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="J17">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N17">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q17">
-        <v>28.68662002957045</v>
+        <v>48.928719368399</v>
       </c>
       <c r="R17">
-        <v>258.179580266134</v>
+        <v>440.358474315591</v>
       </c>
       <c r="S17">
-        <v>0.003301120292176539</v>
+        <v>0.005082120487822262</v>
       </c>
       <c r="T17">
-        <v>0.003301120292176539</v>
+        <v>0.005082120487822262</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.741795333333333</v>
+        <v>10.149841</v>
       </c>
       <c r="H18">
-        <v>17.225386</v>
+        <v>30.449523</v>
       </c>
       <c r="I18">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="J18">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q18">
-        <v>203.3026393182495</v>
+        <v>359.3805324235836</v>
       </c>
       <c r="R18">
-        <v>1829.723753864246</v>
+        <v>3234.424791812253</v>
       </c>
       <c r="S18">
-        <v>0.02339510431743851</v>
+        <v>0.03732808032441518</v>
       </c>
       <c r="T18">
-        <v>0.02339510431743851</v>
+        <v>0.03732808032441519</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.741795333333333</v>
+        <v>10.149841</v>
       </c>
       <c r="H19">
-        <v>17.225386</v>
+        <v>30.449523</v>
       </c>
       <c r="I19">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="J19">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N19">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O19">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P19">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q19">
-        <v>327.0487290568634</v>
+        <v>520.8989512939377</v>
       </c>
       <c r="R19">
-        <v>2943.43856151177</v>
+        <v>4688.090561645439</v>
       </c>
       <c r="S19">
-        <v>0.03763521791369176</v>
+        <v>0.05410464991989575</v>
       </c>
       <c r="T19">
-        <v>0.03763521791369176</v>
+        <v>0.05410464991989575</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.741795333333333</v>
+        <v>10.149841</v>
       </c>
       <c r="H20">
-        <v>17.225386</v>
+        <v>30.449523</v>
       </c>
       <c r="I20">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="J20">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N20">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O20">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P20">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q20">
-        <v>22.87127995374422</v>
+        <v>41.750183422103</v>
       </c>
       <c r="R20">
-        <v>205.841519583698</v>
+        <v>375.751650798927</v>
       </c>
       <c r="S20">
-        <v>0.002631918514120121</v>
+        <v>0.004336501451064847</v>
       </c>
       <c r="T20">
-        <v>0.002631918514120121</v>
+        <v>0.004336501451064848</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.741795333333333</v>
+        <v>10.149841</v>
       </c>
       <c r="H21">
-        <v>17.225386</v>
+        <v>30.449523</v>
       </c>
       <c r="I21">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="J21">
-        <v>0.1003174099849339</v>
+        <v>0.1618665483971577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N21">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O21">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P21">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q21">
-        <v>289.8455202836504</v>
+        <v>587.4310575505276</v>
       </c>
       <c r="R21">
-        <v>2608.609682552854</v>
+        <v>5286.879517954749</v>
       </c>
       <c r="S21">
-        <v>0.03335404894750692</v>
+        <v>0.06101519621395968</v>
       </c>
       <c r="T21">
-        <v>0.03335404894750692</v>
+        <v>0.06101519621395968</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.609733333333333</v>
+        <v>1.707731333333333</v>
       </c>
       <c r="H22">
-        <v>4.8292</v>
+        <v>5.123194</v>
       </c>
       <c r="I22">
-        <v>0.02812435299268433</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="J22">
-        <v>0.02812435299268432</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N22">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q22">
-        <v>8.042398901644445</v>
+        <v>8.232356266988667</v>
       </c>
       <c r="R22">
-        <v>72.38159011480001</v>
+        <v>74.091206402898</v>
       </c>
       <c r="S22">
-        <v>0.0009254811540930894</v>
+        <v>0.0008550770792201927</v>
       </c>
       <c r="T22">
-        <v>0.0009254811540930892</v>
+        <v>0.0008550770792201927</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.609733333333333</v>
+        <v>1.707731333333333</v>
       </c>
       <c r="H23">
-        <v>4.8292</v>
+        <v>5.123194</v>
       </c>
       <c r="I23">
-        <v>0.02812435299268433</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="J23">
-        <v>0.02812435299268432</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q23">
-        <v>56.99663890235556</v>
+        <v>60.46650344668155</v>
       </c>
       <c r="R23">
-        <v>512.9697501212</v>
+        <v>544.1985310201339</v>
       </c>
       <c r="S23">
-        <v>0.006558903107876599</v>
+        <v>0.00628052522036427</v>
       </c>
       <c r="T23">
-        <v>0.006558903107876599</v>
+        <v>0.00628052522036427</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.609733333333333</v>
+        <v>1.707731333333333</v>
       </c>
       <c r="H24">
-        <v>4.8292</v>
+        <v>5.123194</v>
       </c>
       <c r="I24">
-        <v>0.02812435299268433</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="J24">
-        <v>0.02812435299268432</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N24">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O24">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P24">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q24">
-        <v>91.68930799933335</v>
+        <v>87.64230500016022</v>
       </c>
       <c r="R24">
-        <v>825.2037719940001</v>
+        <v>788.780745001442</v>
       </c>
       <c r="S24">
-        <v>0.01055117106512448</v>
+        <v>0.009103217079680046</v>
       </c>
       <c r="T24">
-        <v>0.01055117106512448</v>
+        <v>0.009103217079680046</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.609733333333333</v>
+        <v>1.707731333333333</v>
       </c>
       <c r="H25">
-        <v>4.8292</v>
+        <v>5.123194</v>
       </c>
       <c r="I25">
-        <v>0.02812435299268433</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="J25">
-        <v>0.02812435299268432</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N25">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O25">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P25">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q25">
-        <v>6.412047030622223</v>
+        <v>7.024553035100666</v>
       </c>
       <c r="R25">
-        <v>57.7084232756</v>
+        <v>63.220977315906</v>
       </c>
       <c r="S25">
-        <v>0.0007378679867254581</v>
+        <v>0.0007296251640817728</v>
       </c>
       <c r="T25">
-        <v>0.000737867986725458</v>
+        <v>0.000729625164081773</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.609733333333333</v>
+        <v>1.707731333333333</v>
       </c>
       <c r="H26">
-        <v>4.8292</v>
+        <v>5.123194</v>
       </c>
       <c r="I26">
-        <v>0.02812435299268433</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="J26">
-        <v>0.02812435299268432</v>
+        <v>0.02723437505241143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N26">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O26">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P26">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q26">
-        <v>81.25925227764446</v>
+        <v>98.83646681284688</v>
       </c>
       <c r="R26">
-        <v>731.3332704988001</v>
+        <v>889.5282013156219</v>
       </c>
       <c r="S26">
-        <v>0.009350929678864698</v>
+        <v>0.01026593050906515</v>
       </c>
       <c r="T26">
-        <v>0.009350929678864696</v>
+        <v>0.01026593050906515</v>
       </c>
     </row>
   </sheetData>
